--- a/CucumberPractice/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/CucumberPractice/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/CucumberPractice/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/CucumberPractice/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/CucumberPractice/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/CucumberPractice/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/CucumberPractice/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/CucumberPractice/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/CucumberPractice/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/CucumberPractice/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>
